--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -217,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +230,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +263,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -269,12 +282,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,7 +594,7 @@
   <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,19 +665,19 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1298,6 +1313,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
